--- a/biology/Botanique/Forêts_de_Corse/Forêts_de_Corse.xlsx
+++ b/biology/Botanique/Forêts_de_Corse/Forêts_de_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Corse</t>
+          <t>Forêts_de_Corse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Corse, île de 8 680 km2, a une surface de bois et forêts de 507 000 ha, soit 58 % de sa superficie[1]. Elle est la plus boisée des îles de la Méditerranée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Corse, île de 8 680 km2, a une surface de bois et forêts de 507 000 ha, soit 58 % de sa superficie. Elle est la plus boisée des îles de la Méditerranée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Corse</t>
+          <t>Forêts_de_Corse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>La forêt et les espaces naturels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Office national des forêts est chargé de la gestion des forêts relevant du régime forestier : forêts territoriales, forêts départementales ainsi que forêts des collectivités de l'île, soit 150 261 ha de la couverture forestière de l'île.
 Les essences résineuses occupent près de 60 % de leur surface productive et elles concentrent l’essentiel de la ressource actuellement valorisable en bois d’œuvre. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Corse</t>
+          <t>Forêts_de_Corse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Forêts territoriales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont au nombre de 31[note 1] dans les deux départements de Corse, réparties sur 51 023 ha, ce qui représente 27 % de la surface boisée de l’île.
 Elles sont essentiellement des forêts d'altitude où hêtres et pins laricio sont majoritaires, expliquant aussi la quasi absence du chêne vert, la première l'essence sur l'île. 
 Ces forêts d'altitude anciennement génoises, devinrent royales et publiques lors du rattachement de la Corse à la France en 1768. Conservées par l’État français à la suite des transactions Blondel du 10 août 1851, elles deviennent publiques.
 La loi du 22 janvier 2002 transfère le domaine forestier privé de l'État à la Collectivité territoriale de Corse. 
-Le volume de bois commercialisé en 2001 était de 35 000 m3[2].
+Le volume de bois commercialisé en 2001 était de 35 000 m3.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Corse</t>
+          <t>Forêts_de_Corse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Forêts départementales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a qu'une seule forêt départementale en Corse.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Corse</t>
+          <t>Forêts_de_Corse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +629,13 @@
           <t>Forêts de collectivités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'ONF gère en Corse 131 forêts communales. À celles-ci, il convient d'ajouter une propriété du Conservatoire du littoral, la forêt de Pinia située au sud de l'étang d'Urbino, et la forêt de Casabianda sur des terres appartenant au ministère de la Justice.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ONF gère en Corse 131 forêts communales. À celles-ci, il convient d'ajouter une propriété du Conservatoire du littoral, la forêt de Pinia située au sud de l'étang d'Urbino, et la forêt de Casabianda sur des terres appartenant au ministère de la Justice.
 Ces forêts des collectivités sont communales, communales indivises (plusieurs communes en indivision), d'établissements d'utilité publique ou encore départementale.
-Forêts communales, d'établissements d'utilité publique et départementales
-Les forêts communales indivises</t>
+</t>
         </is>
       </c>
     </row>
@@ -626,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Corse</t>
+          <t>Forêts_de_Corse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,13 +663,50 @@
           <t>Principales essences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Pour l’ensemble de la Corse, le taux moyen de boisement est de 46,0 % avec une surface boisée de 401 817 ha, très supérieur au taux moyen national (26,9 %).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l’ensemble de la Corse, le taux moyen de boisement est de 46,0 % avec une surface boisée de 401 817 ha, très supérieur au taux moyen national (26,9 %).
 Le chêne vert reste majoritaire dans le peuplement des surfaces boisées et arborées de l'île. 
-Sur 212 920 ha de forêts corses, 45 000 ha abritent des pins laricio de Corse (Pinus nigra subsp laricio var corsicana) en langue corse u làrice ou u lariciu, dont 21 000 ha sont des peuplements purs[5].
-Répartition par essence principale des surfaces de formations boisées de production
-Pin Laricio : 25 069 ha, soit 7,4 %  (taux de boisement qui est le rapport entre la surface boisée et la surface totale de la région) forestière considérée[1]
+Sur 212 920 ha de forêts corses, 45 000 ha abritent des pins laricio de Corse (Pinus nigra subsp laricio var corsicana) en langue corse u làrice ou u lariciu, dont 21 000 ha sont des peuplements purs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêts_de_Corse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAts_de_Corse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales essences</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Répartition par essence principale des surfaces de formations boisées de production</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pin Laricio : 25 069 ha, soit 7,4 %  (taux de boisement qui est le rapport entre la surface boisée et la surface totale de la région) forestière considérée
 Pin maritime : 32 397 ha, soit 9,6 %
 Hêtre : 16 124 ha, soit 4,8 %
 Chêne vert : 137 323 ha, soit 40,6 %
